--- a/data/antwerp_engraver_url.xlsx
+++ b/data/antwerp_engraver_url.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracegao/Desktop/BassConnections/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4107D98-A6C3-A444-9844-D6FD53FEB7EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FB0E42-F920-2541-815D-062841FBC8BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="2700" windowWidth="28800" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,32 +25,32 @@
     <t>full_url</t>
   </si>
   <si>
-    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=81%2C121%2C152&amp;subjectmat=&amp;place=antwerpen&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=2&amp;subtask=selections</t>
-  </si>
-  <si>
-    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=81%2C121%2C152&amp;subjectmat=&amp;place=antwerpen&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=3&amp;subtask=selections</t>
-  </si>
-  <si>
-    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=81%2C121%2C152&amp;subjectmat=&amp;place=antwerpen&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=4&amp;subtask=selections</t>
-  </si>
-  <si>
-    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=81%2C121%2C152&amp;subjectmat=&amp;place=antwerpen&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=5&amp;subtask=selections</t>
-  </si>
-  <si>
-    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=81%2C121%2C152&amp;subjectmat=&amp;place=antwerpen&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=6&amp;subtask=selections</t>
-  </si>
-  <si>
-    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=81%2C121%2C152&amp;subjectmat=&amp;place=antwerpen&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=7&amp;subtask=selections</t>
-  </si>
-  <si>
-    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=81%2C121%2C152&amp;subjectmat=&amp;place=antwerpen&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=1&amp;subtask=selections</t>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=81%2C121%2C152&amp;subjectmat=&amp;place=Antwerpen&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=2&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=81%2C121%2C152&amp;subjectmat=&amp;place=Antwerpen&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=3&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=81%2C121%2C152&amp;subjectmat=&amp;place=Antwerpen&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=4&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=81%2C121%2C152&amp;subjectmat=&amp;place=Antwerpen&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=5&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=81%2C121%2C152&amp;subjectmat=&amp;place=Antwerpen&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=6&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=81%2C121%2C152&amp;subjectmat=&amp;place=Antwerpen&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=7&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=81%2C121%2C152&amp;subjectmat=&amp;place=Antwerpen&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=1&amp;subtask=selections</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +62,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,19 +92,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,7 +451,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="181.6640625" customWidth="1"/>
+    <col min="1" max="1" width="182.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -485,6 +495,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C9ED20D0-F4AD-9144-9F72-2A8077DDCC14}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>